--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_04_beg.xlsx
@@ -676,7 +676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   Clear \ Visibility: 14 km 
+    <t xml:space="preserve">[name=""]   Clear \ Visibility: 14 km 
 </t>
   </si>
   <si>
@@ -944,11 +944,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="\"Captain\""]   Someone... help... save me...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="\"Captain\""]   It's... the Infected...
+    <t xml:space="preserve">[name="'Captain'"]   Someone... help... save me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Captain'"]   It's... the Infected...
 </t>
   </si>
   <si>
